--- a/Resources/BOM.xlsx
+++ b/Resources/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsyac\Documents\MCD\MCD Project\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8E8BC6-EAA5-450E-BFDD-0410B857A873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A231083D-6E45-4C70-A380-146FB4D6ED25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{F77FC9BC-CAEC-4151-9ED6-81BA84596845}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F77FC9BC-CAEC-4151-9ED6-81BA84596845}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>DUART</t>
   </si>
   <si>
-    <t>DUART Socket</t>
-  </si>
-  <si>
     <t>Supervisor Chip</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>CPLD/DUART Socket</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/maxlinear-inc/XR68C681CJ-F/2411255</t>
   </si>
 </sst>
 </file>
@@ -281,9 +281,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -321,7 +321,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -427,7 +427,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -569,7 +569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -580,20 +580,20 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -616,9 +616,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3">
         <v>4</v>
@@ -639,7 +639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -662,7 +662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -677,14 +677,14 @@
         <v>11.88</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -695,20 +695,20 @@
         <v>3.36</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D12" si="0">PRODUCT(B5:C5)</f>
+        <f t="shared" ref="D5:D8" si="0">PRODUCT(B5:C5)</f>
         <v>13.44</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -723,16 +723,16 @@
         <v>20.239999999999998</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -747,16 +747,16 @@
         <v>3.12</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -771,126 +771,117 @@
         <v>1.85</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>11</v>
+      </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>20.25</v>
+      </c>
+      <c r="D10" s="3">
+        <f>PRODUCT(B10:C10)</f>
+        <v>20.25</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="B11" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3">
-        <v>20.25</v>
+        <v>1.31</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>20.25</v>
+        <f>PRODUCT(B11:C11)</f>
+        <v>5.24</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1.31</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>5.24</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <f>SUM(D2:D13)</f>
+        <v>108.61999999999999</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
-        <f>SUM(D2:D14)</f>
-        <v>86.61999999999999</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -898,7 +889,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -906,7 +897,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -915,9 +906,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G12" r:id="rId1" xr:uid="{40559E7B-E844-4916-AB82-37918D5748BB}"/>
+    <hyperlink ref="G11" r:id="rId1" xr:uid="{40559E7B-E844-4916-AB82-37918D5748BB}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{4C97E905-BD3C-4E83-9255-4A6A93DAF42A}"/>
     <hyperlink ref="G3" r:id="rId3" xr:uid="{76D0998D-D393-4129-BCEE-A905ECDFC7DD}"/>
+    <hyperlink ref="G8" r:id="rId4" xr:uid="{F1B66458-3BE3-47E0-A05B-81FBCAE10AD1}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{067767FF-EF6B-43F3-B4F2-EFC805C2DC27}"/>
+    <hyperlink ref="G6" r:id="rId6" xr:uid="{5052C65F-9C02-4067-A23D-9B4FF67FB5A0}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{75FC3261-C988-49BC-BE5E-9A6E26249FBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
